--- a/Excel/SCIC0002 - Create DEP account on same CIF.xlsx
+++ b/Excel/SCIC0002 - Create DEP account on same CIF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\ICONS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176A6544-46B5-48BC-94CB-92BD458D3E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CE8402-4BA1-4CC7-95EE-0ACEF0DD8A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5E7B8BF1-A296-4B05-868D-4DC65ED38144}"/>
   </bookViews>
@@ -82,13 +82,13 @@
     <t>BATCH_FIELD</t>
   </si>
   <si>
-    <t>2000:Tabungan Plus (TAPLUS)|0001: IDR|Y: Ya|I : Tunai|0 : Dikirim ke Pemilik Rekening Utama|1: Normal|0: Untuk Nasabah Utama|4: Bhs. Indonesia|2- Investasi|1- Gaji|2 : Rp 5 jt sd &lt; 25 jt</t>
-  </si>
-  <si>
     <t>COMMAND_RESET_TELLER</t>
   </si>
   <si>
     <t>reset_teller</t>
+  </si>
+  <si>
+    <t>2000|0001|Y|R|0|1|0|4|2|2|2</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +529,7 @@
         <v>13</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -539,7 +539,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -563,10 +563,10 @@
         <v>1000156868</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>

--- a/Excel/SCIC0002 - Create DEP account on same CIF.xlsx
+++ b/Excel/SCIC0002 - Create DEP account on same CIF.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\ICONS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CE8402-4BA1-4CC7-95EE-0ACEF0DD8A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F25CB01-F898-43E2-8F0A-255C6EFBB1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5E7B8BF1-A296-4B05-868D-4DC65ED38144}"/>
   </bookViews>
   <sheets>
     <sheet name="sheetname" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="181029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>RUN</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>2000|0001|Y|R|0|1|0|4|2|2|2</t>
+  </si>
+  <si>
+    <t>1009|0001|Y|R|0|1|0|4|2|2|2</t>
+  </si>
+  <si>
+    <t>1008|0001|Y|R|0|1|0|4|2|2|2</t>
   </si>
 </sst>
 </file>
@@ -474,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EB578C-1D4B-4E78-9D1E-24FE7C4E05FC}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,6 +579,62 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
+    <row r="3" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5">
+        <v>62000</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5">
+        <v>1000156868</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5">
+        <v>62000</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5">
+        <v>1000156868</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
